--- a/www/datasets/tourism.xlsx
+++ b/www/datasets/tourism.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelnovoahernandez/R/SofiApp/www/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelnovoahernandez/R/WIBApp/www/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF604A6-EA0E-0C41-AEE3-D1DF976D9A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA5D6E-8AE0-0840-836B-58CE1AEB71AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15260" yWindow="8500" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{FB637EF8-5165-E34C-8B7E-AA8A4AF28656}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="2" r:id="rId1"/>
-    <sheet name="solutions" sheetId="3" r:id="rId2"/>
+    <sheet name="alternatives" sheetId="3" r:id="rId2"/>
     <sheet name="evaluations" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -169,9 +169,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Solution</t>
-  </si>
-  <si>
     <t>Short name</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>CULTRES</t>
+  </si>
+  <si>
+    <t>Alternative</t>
   </si>
 </sst>
 </file>
@@ -774,33 +774,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -834,13 +834,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -854,13 +854,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -874,13 +874,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -894,13 +894,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -914,13 +914,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1093,15 +1093,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -1453,61 +1453,61 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>120</v>
-      </c>
-      <c r="O1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>4.9800000000000004</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>4.84</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>5.09</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>4.83</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>3.36</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>4.43</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>3.78</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>4.5</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>5.52</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>5.07</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>5.69</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>4.76</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>5.18</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>5.45</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>3.93</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>4.3099999999999996</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>5.31</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>5.21</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>4.01</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>4.7300000000000004</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>4.37</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>4.55</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>4.68</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>5.78</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>4.95</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>4.03</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>4.5999999999999996</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>5.5</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>5.29</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>4.26</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>4.66</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>4.38</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>4.26</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>4.3899999999999997</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>4.08</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>4.3099999999999996</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>4.4800000000000004</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>5.28</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>4.28</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>4.4000000000000004</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>4.1100000000000003</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <v>5.75</v>
